--- a/mock-api/file/active.xlsx
+++ b/mock-api/file/active.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FPT\eregit_100724\mock-api\file\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347FBBD6-CB93-4C74-85A4-92C58408E12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540"/>
+    <workbookView xWindow="3450" yWindow="3450" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="97">
   <si>
     <t>Email</t>
   </si>
@@ -102,9 +108,6 @@
     <t>mewpro55@gmail.com</t>
   </si>
   <si>
-    <t>neelnara1731@gmail.com</t>
-  </si>
-  <si>
     <t>ncpo.2014@gmail.com</t>
   </si>
   <si>
@@ -177,18 +180,12 @@
     <t>Admin</t>
   </si>
   <si>
-    <t>sale</t>
-  </si>
-  <si>
     <t>Team1</t>
   </si>
   <si>
     <t>Team2</t>
   </si>
   <si>
-    <t>Team3</t>
-  </si>
-  <si>
     <t>Team4</t>
   </si>
   <si>
@@ -249,9 +246,6 @@
     <t>Team23</t>
   </si>
   <si>
-    <t>Team24</t>
-  </si>
-  <si>
     <t>Team25</t>
   </si>
   <si>
@@ -319,20 +313,17 @@
   </si>
   <si>
     <t>Team47</t>
-  </si>
-  <si>
-    <t>sidazz@hot.@.mail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -340,7 +331,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -387,13 +378,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ชุดรูปแบบของ Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -431,7 +430,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -465,6 +464,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -499,9 +499,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -674,911 +675,875 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="41.875" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21">
+    <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2">
         <v>1000</v>
       </c>
       <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
         <v>52</v>
       </c>
-      <c r="E2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3">
         <v>1000</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4">
-        <v>7894</v>
-      </c>
-      <c r="D4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" t="s">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <v>1000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5">
-        <v>1000</v>
-      </c>
-      <c r="D5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" t="s">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>1000</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6">
-        <v>1000</v>
-      </c>
-      <c r="D6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" t="s">
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8">
+        <v>1000</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7">
-        <v>1000</v>
-      </c>
-      <c r="D7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" t="s">
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9">
+        <v>1000</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8">
-        <v>1000</v>
-      </c>
-      <c r="D8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" t="s">
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>1000</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9">
-        <v>1000</v>
-      </c>
-      <c r="D9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" t="s">
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>1000</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10">
-        <v>1000</v>
-      </c>
-      <c r="D10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" t="s">
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <v>1000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11">
-        <v>1000</v>
-      </c>
-      <c r="D11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" t="s">
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13">
+        <v>1000</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12">
-        <v>1000</v>
-      </c>
-      <c r="D12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" t="s">
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <v>1000</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13">
-        <v>1000</v>
-      </c>
-      <c r="D13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" t="s">
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15">
+        <v>1000</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14">
-        <v>1000</v>
-      </c>
-      <c r="D14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" t="s">
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16">
+        <v>1000</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15">
-        <v>1000</v>
-      </c>
-      <c r="D15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" t="s">
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17">
+        <v>1000</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16">
-        <v>1000</v>
-      </c>
-      <c r="D16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" t="s">
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18">
+        <v>1000</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17">
-        <v>1000</v>
-      </c>
-      <c r="D17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" t="s">
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19">
+        <v>1000</v>
+      </c>
+      <c r="D19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18">
-        <v>1000</v>
-      </c>
-      <c r="D18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" t="s">
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20">
+        <v>1000</v>
+      </c>
+      <c r="D20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19">
-        <v>1000</v>
-      </c>
-      <c r="D19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" t="s">
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21">
+        <v>1000</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20">
-        <v>1000</v>
-      </c>
-      <c r="D20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" t="s">
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22">
+        <v>1000</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21">
-        <v>1000</v>
-      </c>
-      <c r="D21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" t="s">
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23">
+        <v>1000</v>
+      </c>
+      <c r="D23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22">
-        <v>1000</v>
-      </c>
-      <c r="D22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" t="s">
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24">
+        <v>1000</v>
+      </c>
+      <c r="D24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23">
-        <v>1000</v>
-      </c>
-      <c r="D23" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" t="s">
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25">
+        <v>1000</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24">
-        <v>1000</v>
-      </c>
-      <c r="D24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" t="s">
+    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26">
+        <v>1000</v>
+      </c>
+      <c r="D26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25">
-        <v>1000</v>
-      </c>
-      <c r="D25" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" t="s">
+    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27">
+        <v>1000</v>
+      </c>
+      <c r="D27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26">
-        <v>1000</v>
-      </c>
-      <c r="D26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" t="s">
+    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28">
+        <v>1000</v>
+      </c>
+      <c r="D28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27">
-        <v>1000</v>
-      </c>
-      <c r="D27" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" t="s">
+    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29">
+        <v>1000</v>
+      </c>
+      <c r="D29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28">
-        <v>1000</v>
-      </c>
-      <c r="D28" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" t="s">
+    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30">
+        <v>1000</v>
+      </c>
+      <c r="D30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29">
-        <v>1000</v>
-      </c>
-      <c r="D29" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" t="s">
+    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31">
+        <v>1000</v>
+      </c>
+      <c r="D31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30">
-        <v>1000</v>
-      </c>
-      <c r="D30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" t="s">
+    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32">
+        <v>1000</v>
+      </c>
+      <c r="D32" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31">
-        <v>1000</v>
-      </c>
-      <c r="D31" t="s">
-        <v>52</v>
-      </c>
-      <c r="E31" t="s">
+    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33">
+        <v>1000</v>
+      </c>
+      <c r="D33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32">
-        <v>1000</v>
-      </c>
-      <c r="D32" t="s">
-        <v>52</v>
-      </c>
-      <c r="E32" t="s">
+    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34">
+        <v>1000</v>
+      </c>
+      <c r="D34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33">
-        <v>1000</v>
-      </c>
-      <c r="D33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E33" t="s">
+    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35">
+        <v>1000</v>
+      </c>
+      <c r="D35" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34">
-        <v>1000</v>
-      </c>
-      <c r="D34" t="s">
-        <v>52</v>
-      </c>
-      <c r="E34" t="s">
+    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36">
+        <v>1000</v>
+      </c>
+      <c r="D36" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35">
-        <v>1000</v>
-      </c>
-      <c r="D35" t="s">
-        <v>52</v>
-      </c>
-      <c r="E35" t="s">
+    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37">
+        <v>1000</v>
+      </c>
+      <c r="D37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36">
-        <v>1000</v>
-      </c>
-      <c r="D36" t="s">
-        <v>52</v>
-      </c>
-      <c r="E36" t="s">
+    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38">
+        <v>1000</v>
+      </c>
+      <c r="D38" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37">
-        <v>1000</v>
-      </c>
-      <c r="D37" t="s">
-        <v>52</v>
-      </c>
-      <c r="E37" t="s">
+    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39">
+        <v>1000</v>
+      </c>
+      <c r="D39" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38">
-        <v>1000</v>
-      </c>
-      <c r="D38" t="s">
-        <v>52</v>
-      </c>
-      <c r="E38" t="s">
+    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40">
+        <v>1000</v>
+      </c>
+      <c r="D40" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39">
-        <v>1000</v>
-      </c>
-      <c r="D39" t="s">
-        <v>52</v>
-      </c>
-      <c r="E39" t="s">
+    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41">
+        <v>1000</v>
+      </c>
+      <c r="D41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40">
-        <v>1000</v>
-      </c>
-      <c r="D40" t="s">
-        <v>52</v>
-      </c>
-      <c r="E40" t="s">
+    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42">
+        <v>1000</v>
+      </c>
+      <c r="D42" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41">
-        <v>1000</v>
-      </c>
-      <c r="D41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E41" t="s">
+    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43">
+        <v>1000</v>
+      </c>
+      <c r="D43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42">
-        <v>1000</v>
-      </c>
-      <c r="D42" t="s">
-        <v>52</v>
-      </c>
-      <c r="E42" t="s">
+    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44">
+        <v>1000</v>
+      </c>
+      <c r="D44" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43">
-        <v>1000</v>
-      </c>
-      <c r="D43" t="s">
-        <v>52</v>
-      </c>
-      <c r="E43" t="s">
+    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45">
+        <v>1000</v>
+      </c>
+      <c r="D45" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44">
-        <v>1000</v>
-      </c>
-      <c r="D44" t="s">
-        <v>52</v>
-      </c>
-      <c r="E44" t="s">
+    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46">
+        <v>1000</v>
+      </c>
+      <c r="D46" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45">
-        <v>1000</v>
-      </c>
-      <c r="D45" t="s">
-        <v>52</v>
-      </c>
-      <c r="E45" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46">
-        <v>1000</v>
-      </c>
-      <c r="D46" t="s">
-        <v>52</v>
-      </c>
-      <c r="E46" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47">
-        <v>1000</v>
-      </c>
-      <c r="D47" t="s">
-        <v>52</v>
-      </c>
-      <c r="E47" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48">
-        <v>1000</v>
-      </c>
-      <c r="D48" t="s">
-        <v>52</v>
-      </c>
-      <c r="E48" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A48" r:id="rId6"/>
-    <hyperlink ref="A47" r:id="rId7"/>
-    <hyperlink ref="A46" r:id="rId8"/>
-    <hyperlink ref="A45" r:id="rId9"/>
-    <hyperlink ref="A44" r:id="rId10"/>
-    <hyperlink ref="A43" r:id="rId11"/>
-    <hyperlink ref="A42" r:id="rId12"/>
-    <hyperlink ref="A41" r:id="rId13"/>
-    <hyperlink ref="A40" r:id="rId14"/>
-    <hyperlink ref="A39" r:id="rId15"/>
-    <hyperlink ref="A38" r:id="rId16"/>
-    <hyperlink ref="A37" r:id="rId17"/>
-    <hyperlink ref="A36" r:id="rId18"/>
-    <hyperlink ref="A35" r:id="rId19"/>
-    <hyperlink ref="A34" r:id="rId20"/>
-    <hyperlink ref="A33" r:id="rId21"/>
-    <hyperlink ref="A32" r:id="rId22"/>
-    <hyperlink ref="A31" r:id="rId23"/>
-    <hyperlink ref="A30" r:id="rId24"/>
-    <hyperlink ref="A29" r:id="rId25"/>
-    <hyperlink ref="A28" r:id="rId26"/>
-    <hyperlink ref="A27" r:id="rId27"/>
-    <hyperlink ref="A26" r:id="rId28"/>
-    <hyperlink ref="A25" r:id="rId29"/>
-    <hyperlink ref="A24" r:id="rId30"/>
-    <hyperlink ref="A23" r:id="rId31"/>
-    <hyperlink ref="A22" r:id="rId32"/>
-    <hyperlink ref="A21" r:id="rId33"/>
-    <hyperlink ref="A20" r:id="rId34"/>
-    <hyperlink ref="A19" r:id="rId35"/>
-    <hyperlink ref="A18" r:id="rId36"/>
-    <hyperlink ref="A17" r:id="rId37"/>
-    <hyperlink ref="A16" r:id="rId38"/>
-    <hyperlink ref="A15" r:id="rId39"/>
-    <hyperlink ref="A14" r:id="rId40"/>
-    <hyperlink ref="A13" r:id="rId41"/>
-    <hyperlink ref="A12" r:id="rId42"/>
-    <hyperlink ref="A11" r:id="rId43"/>
-    <hyperlink ref="A10" r:id="rId44"/>
-    <hyperlink ref="A9" r:id="rId45"/>
-    <hyperlink ref="A8" r:id="rId46"/>
-    <hyperlink ref="A7" r:id="rId47"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A46" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A45" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A44" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A43" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A42" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A41" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A40" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A39" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A38" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A37" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A36" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A35" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A34" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A33" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A32" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A31" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A30" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A29" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A28" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A27" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A25" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A24" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A23" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A22" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="A21" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A20" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A19" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="A18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A17" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A16" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="A15" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="A14" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="A13" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A12" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A11" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="A10" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="A9" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="A8" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="A7" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="A6" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId48"/>
+  <pageSetup orientation="portrait" r:id="rId46"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
